--- a/excelPourBD/t_former.xlsx
+++ b/excelPourBD/t_former.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet\P_GesProj2\Projet CatalogueCours\Dépôt\depot\excelPourBD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet\P_GesProj2\Projet CatalogueCours\Depot GitHub\col-go-lo\excelPourBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>idFormer</t>
   </si>
@@ -68,9 +68,6 @@
     <t>fuyutsuki.azusa@kissho.jp</t>
   </si>
   <si>
-    <t>756.9852.2654.59</t>
-  </si>
-  <si>
     <t>756.3571.6524.62</t>
   </si>
   <si>
@@ -84,6 +81,15 @@
   </si>
   <si>
     <t>Av. de Sébeillon 12, 1004 Lausanne</t>
+  </si>
+  <si>
+    <t>076 456 15 91</t>
+  </si>
+  <si>
+    <t>078 656 28 75</t>
+  </si>
+  <si>
+    <t>756.4917.2391.45</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AVE19232"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +467,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -468,22 +477,25 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2">
-        <v>764561591</v>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -491,110 +503,62 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2">
-        <v>786562875</v>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="2"/>
-      <c r="H4">
-        <v>756</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
-      <c r="H5">
-        <v>756</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="2"/>
-      <c r="H6">
-        <v>756</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
-      <c r="H7">
-        <v>756</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
-      <c r="H8">
-        <v>756</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
-      <c r="H9">
-        <v>756</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
-      <c r="H10">
-        <v>756</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
-      <c r="H11">
-        <v>756</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
-      <c r="H12">
-        <v>756</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
-      <c r="H13">
-        <v>756</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
-      <c r="H14">
-        <v>756</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
-      <c r="H15">
-        <v>756</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
-      <c r="H16">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="19232" spans="1253:1253" x14ac:dyDescent="0.25">
-      <c r="AVE19232">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excelPourBD/t_former.xlsx
+++ b/excelPourBD/t_former.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>idFormer</t>
   </si>
@@ -71,12 +71,6 @@
     <t>756.3571.6524.62</t>
   </si>
   <si>
-    <t>Enseingnante en japonais</t>
-  </si>
-  <si>
-    <t>Enseingnant en éducation civique</t>
-  </si>
-  <si>
     <t>Av. du Rond-Point 18, 1006 Lausanne</t>
   </si>
   <si>
@@ -90,6 +84,153 @@
   </si>
   <si>
     <t>756.4917.2391.45</t>
+  </si>
+  <si>
+    <t>Girardet</t>
+  </si>
+  <si>
+    <t>Alain</t>
+  </si>
+  <si>
+    <t>Rte. De Divonne 38, 1260 Nyon</t>
+  </si>
+  <si>
+    <t>alain.girardet@vd.educanet2.ch</t>
+  </si>
+  <si>
+    <t>756.1673.4976.15</t>
+  </si>
+  <si>
+    <t>Mveng</t>
+  </si>
+  <si>
+    <t>Antoine</t>
+  </si>
+  <si>
+    <t>Av. de la Gare 2, 1315 la Sarraz</t>
+  </si>
+  <si>
+    <t>antoine.mveng@vd.educanet2.ch</t>
+  </si>
+  <si>
+    <t>756.1376.9157.64</t>
+  </si>
+  <si>
+    <t>Salulessa</t>
+  </si>
+  <si>
+    <t>salulessa.salulessa@excuse.educanet2.ch</t>
+  </si>
+  <si>
+    <t>Enseignant en anglais</t>
+  </si>
+  <si>
+    <t>756.8888.8888.88</t>
+  </si>
+  <si>
+    <t>Ch. Du Perdu 88, 8888 Akahia</t>
+  </si>
+  <si>
+    <t>Desgraz</t>
+  </si>
+  <si>
+    <t>Jean-Luc</t>
+  </si>
+  <si>
+    <t>Rte. Du Chalet-à-Gobet 9, 1055 Froideville</t>
+  </si>
+  <si>
+    <t>jeanluc.desgraz@vd.educanet2.ch</t>
+  </si>
+  <si>
+    <t>Enseignant en electronique</t>
+  </si>
+  <si>
+    <t>756.1011.1000.00</t>
+  </si>
+  <si>
+    <t>Jaggi</t>
+  </si>
+  <si>
+    <t>Jean-Christophe</t>
+  </si>
+  <si>
+    <t>Ave. Du Mont d'or 42, 1007 Lausanne</t>
+  </si>
+  <si>
+    <t>jeanchristophe.jaggi@vd.educanet2.ch</t>
+  </si>
+  <si>
+    <t>Enseignant en mathématique</t>
+  </si>
+  <si>
+    <t>756.3141.5926.53</t>
+  </si>
+  <si>
+    <t>Gruaz</t>
+  </si>
+  <si>
+    <t>Ch. Des Jonquilles 8, 1134 Vufflens-le-Château</t>
+  </si>
+  <si>
+    <t>gilbert.gruaz@vd.educanet2.ch</t>
+  </si>
+  <si>
+    <t>756.3685.4852.64</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Ollivier</t>
+  </si>
+  <si>
+    <t>Rte. De Cossonay 15, 1040 Echallens</t>
+  </si>
+  <si>
+    <t>ollivier.patrick@vd.educanet2.ch</t>
+  </si>
+  <si>
+    <t>756.2015.2016.14</t>
+  </si>
+  <si>
+    <t>Uwamungu</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>Rte. De Chavannes 143, 1007 Lausanne</t>
+  </si>
+  <si>
+    <t>bernard.uwamungu@vd.educanet2.ch</t>
+  </si>
+  <si>
+    <t>Enseignant en français</t>
+  </si>
+  <si>
+    <t>756.1011.1000.10</t>
+  </si>
+  <si>
+    <t>Enseignant en bureautique</t>
+  </si>
+  <si>
+    <t>Gilbert</t>
+  </si>
+  <si>
+    <t>Enseignant en téléphonie</t>
+  </si>
+  <si>
+    <t>Enseignant en sécurité informatique</t>
+  </si>
+  <si>
+    <t>Enseignant en web</t>
+  </si>
+  <si>
+    <t>Enseignante en japonais</t>
+  </si>
+  <si>
+    <t>Enseignant en éducation civique</t>
   </si>
 </sst>
 </file>
@@ -425,17 +566,17 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
@@ -477,19 +618,19 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -503,44 +644,228 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F4" s="2"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2">
+        <v>766151151</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F5" s="2"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2">
+        <v>794514727</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="2"/>
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2">
+        <v>794656450</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="2"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2">
+        <v>788616570</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="2"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2">
+        <v>796179692</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="2"/>
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2">
+        <v>793387808</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2"/>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2">
+        <v>797052981</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2">
+        <v>796251329</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
@@ -558,7 +883,17 @@
       <c r="F16" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="E10" r:id="rId7"/>
+    <hyperlink ref="E11" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>